--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>no</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Warinthon</t>
+  </si>
+  <si>
+    <t>Alwanee</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,7 +490,21 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1236547895</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
     </row>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -40,10 +40,10 @@
     <t>Pattanun</t>
   </si>
   <si>
+    <t>Alwanee</t>
+  </si>
+  <si>
     <t>Warinthon</t>
-  </si>
-  <si>
-    <t>Alwanee</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6135512053</v>
+        <v>1236547895</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1236547895</v>
+        <v>6135512053</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -28,13 +28,13 @@
     <t>score</t>
   </si>
   <si>
+    <t>Sufian</t>
+  </si>
+  <si>
+    <t>Tannut</t>
+  </si>
+  <si>
     <t>Ruchikon</t>
-  </si>
-  <si>
-    <t>Tannut</t>
-  </si>
-  <si>
-    <t>Sufian</t>
   </si>
   <si>
     <t>Pattanun</t>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6135512005</v>
+        <v>6135512028</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -448,6 +448,9 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
@@ -457,10 +460,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6135512028</v>
+        <v>6135512005</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -476,6 +482,9 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
@@ -503,9 +512,6 @@
       </c>
       <c r="D7" t="s">
         <v>9</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>no</t>
   </si>
@@ -28,19 +28,16 @@
     <t>score</t>
   </si>
   <si>
+    <t>Pattanun</t>
+  </si>
+  <si>
+    <t>Ruchikon</t>
+  </si>
+  <si>
     <t>Sufian</t>
   </si>
   <si>
     <t>Tannut</t>
-  </si>
-  <si>
-    <t>Ruchikon</t>
-  </si>
-  <si>
-    <t>Pattanun</t>
-  </si>
-  <si>
-    <t>Alwanee</t>
   </si>
   <si>
     <t>Warinthon</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6135512028</v>
+        <v>6135512002</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -443,13 +440,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>6135512016</v>
+        <v>6135512005</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -460,13 +454,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6135512005</v>
+        <v>6135512028</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -477,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6135512002</v>
+        <v>6135512016</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -494,24 +485,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1236547895</v>
+        <v>6135512053</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6135512053</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2-2563\project\2\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6093FB53-2510-4D59-ADB4-B3A654A31134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6345" yWindow="2085" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -46,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +116,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -156,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +202,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +254,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +447,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -432,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -446,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -460,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -473,11 +525,8 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
